--- a/AC_primarysheet.xlsx
+++ b/AC_primarysheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nicholas\Documents\Github\Repositories\G400\AstroceltModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BA7484-A8E2-41EB-9DA9-AEF840947FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075869E5-5E0E-4220-BFD0-90AC2CCACCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15540" xr2:uid="{5810AF21-DCC6-4BAF-B49B-561FE6426519}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15540" activeTab="1" xr2:uid="{5810AF21-DCC6-4BAF-B49B-561FE6426519}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Parts and Attributes" sheetId="1" r:id="rId1"/>
+    <sheet name="Modeling" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -382,7 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68896EF8-30BA-43A0-A189-3F9F4C69B7C2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
@@ -390,4 +391,18 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900CB6C7-626B-448E-89C2-6E1783A92504}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>